--- a/plots.xlsx
+++ b/plots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Spring2021/CMPEN431/CMPEN-431-Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8620827A-D5A9-E04C-9E3B-EF6CF90E7B2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117DE42-E263-E34D-8B19-833DDA8C859E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="2" xr2:uid="{39B142E1-F0B0-984E-9DBE-E352252B631F}"/>
   </bookViews>

--- a/plots.xlsx
+++ b/plots.xlsx
@@ -8,39 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Spring2021/CMPEN431/CMPEN-431-Project-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117DE42-E263-E34D-8B19-833DDA8C859E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E0D40-126C-7546-93E2-842A204BCD0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="2" xr2:uid="{39B142E1-F0B0-984E-9DBE-E352252B631F}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" activeTab="4" xr2:uid="{39B142E1-F0B0-984E-9DBE-E352252B631F}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Efficiency Log " sheetId="1" r:id="rId1"/>
     <sheet name="Execution Time Log " sheetId="2" r:id="rId2"/>
     <sheet name="Energy Efficiency Best" sheetId="3" r:id="rId3"/>
     <sheet name="Execution Time Best" sheetId="4" r:id="rId4"/>
+    <sheet name="Best Configuations" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Energy Efficiency Best'!$C$10:$H$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Energy Efficiency Best'!$C$8:$H$8</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Energy Efficiency Best'!$I$2</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Energy Efficiency Best'!$I$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Energy Efficiency Best'!$K$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Energy Efficiency Best'!$K$4</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Energy Efficiency Best'!$M$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Energy Efficiency Best'!$M$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Energy Efficiency Best'!$O$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Energy Efficiency Best'!$O$4</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Energy Efficiency Best'!$C$10:$H$10</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Energy Efficiency Best'!$C$8:$H$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Energy Efficiency Best'!$H$14</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Energy Efficiency Best'!$H$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Energy Efficiency Best'!$C$10:$H$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Energy Efficiency Best'!$C$8:$H$8</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Energy Efficiency Best'!$H$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Energy Efficiency Best'!$C$2</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Energy Efficiency Best'!$C$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Energy Efficiency Best'!$G$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Energy Efficiency Best'!$G$4</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -60,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
   <si>
     <t>GEOMeanEDPNorm</t>
   </si>
@@ -124,12 +102,126 @@
   <si>
     <t>Me messing with the data</t>
   </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>EDP</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Scheduling</t>
+  </si>
+  <si>
+    <t>L1block</t>
+  </si>
+  <si>
+    <t>Dl1sets</t>
+  </si>
+  <si>
+    <t>Dl1assoc</t>
+  </si>
+  <si>
+    <t>Il1sets</t>
+  </si>
+  <si>
+    <t>Il1assoc</t>
+  </si>
+  <si>
+    <t>Ul2sets</t>
+  </si>
+  <si>
+    <t>Ul2block</t>
+  </si>
+  <si>
+    <t>Ul2assoc</t>
+  </si>
+  <si>
+    <t>Replacepolicy</t>
+  </si>
+  <si>
+    <t>Fpwidth</t>
+  </si>
+  <si>
+    <t>branchsettings</t>
+  </si>
+  <si>
+    <t>Ras (return address stack)</t>
+  </si>
+  <si>
+    <t>Btb (branch target buffer)</t>
+  </si>
+  <si>
+    <t>Dl1lat</t>
+  </si>
+  <si>
+    <t>Il1lat</t>
+  </si>
+  <si>
+    <t>Ul2lat</t>
+  </si>
+  <si>
+    <t>ul2lat</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>scheduling</t>
+  </si>
+  <si>
+    <t>l1block</t>
+  </si>
+  <si>
+    <t>dl1sets</t>
+  </si>
+  <si>
+    <t>dl1assoc</t>
+  </si>
+  <si>
+    <t>il1sets</t>
+  </si>
+  <si>
+    <t>il1assoc</t>
+  </si>
+  <si>
+    <t>ul2sets</t>
+  </si>
+  <si>
+    <t>ul2block</t>
+  </si>
+  <si>
+    <t>ul2assoc</t>
+  </si>
+  <si>
+    <t>replacepolicy</t>
+  </si>
+  <si>
+    <t>fpwidth</t>
+  </si>
+  <si>
+    <t>ras</t>
+  </si>
+  <si>
+    <t>btb</t>
+  </si>
+  <si>
+    <t>dl1lat</t>
+  </si>
+  <si>
+    <t>il1lat</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +241,18 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -166,20 +270,134 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2998,7 +3216,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> C: Normalized EDP to Benchmark</a:t>
+              <a:t> D: Normalized EDP to Benchmark</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3125,6 +3343,62 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB94-054B-B2C5-AC224ED05CF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EB94-054B-B2C5-AC224ED05CF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EB94-054B-B2C5-AC224ED05CF6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3399,7 +3673,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> D: Normalized Execution Time to Benchmark</a:t>
+              <a:t> C: Normalized Execution Time to Benchmark</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6094,6 +6368,18 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{01C9E8F0-FF54-D746-9F94-39D68556D3B8}" name="Table2" displayName="Table2" ref="E1:G19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="E1:G19" xr:uid="{EDE223B9-B681-B84C-909F-7B7FBA6333AD}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{63052576-F9CF-5C49-9E2E-0E9207F0AA2B}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{37CDADB6-9FA9-6443-B9EB-BF96EC7D3793}" name="Performance"/>
+    <tableColumn id="3" xr3:uid="{6AD09F51-A854-D84F-80D4-49F3AB1A98E0}" name="EDP"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8873,8 +9159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F94C172-CDDD-D044-977A-1E118353B5A1}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9175,7 +9461,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9436,4 +9722,626 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25589046-9619-8740-BBE1-13E987FE533F}">
+  <dimension ref="A1:Y35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="E2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s">
+        <v>55</v>
+      </c>
+      <c r="V4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
+        <v>57</v>
+      </c>
+      <c r="X4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>